--- a/FRONT.xlsx
+++ b/FRONT.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7425"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7425" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pirámide User y App" sheetId="3" r:id="rId1"/>
     <sheet name="Pirámide User" sheetId="2" r:id="rId2"/>
     <sheet name="urls para los end-points" sheetId="4" r:id="rId3"/>
     <sheet name="Pirámide App" sheetId="5" r:id="rId4"/>
+    <sheet name="Ptos pendientes" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pirámide User y App'!$R$11:$AB$11</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="85">
   <si>
     <t>Componentes</t>
   </si>
@@ -224,6 +225,57 @@
   </si>
   <si>
     <t>/users/userLogin</t>
+  </si>
+  <si>
+    <t>El menú con las rutas</t>
+  </si>
+  <si>
+    <t>El logout</t>
+  </si>
+  <si>
+    <t>Página de Admin-Admin</t>
+  </si>
+  <si>
+    <t>Página de UserAdmin</t>
+  </si>
+  <si>
+    <t>Página de comentarios</t>
+  </si>
+  <si>
+    <t>HACER</t>
+  </si>
+  <si>
+    <t>Gráficas</t>
+  </si>
+  <si>
+    <t>Botones para otras páginas</t>
+  </si>
+  <si>
+    <t>Sus menús</t>
+  </si>
+  <si>
+    <t>ELEMENTOS</t>
+  </si>
+  <si>
+    <t>Botones de envío de comentario</t>
+  </si>
+  <si>
+    <t>Botones de borrar comentario</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>Creo que sí</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>Página de solucionar</t>
+  </si>
+  <si>
+    <t>está en ello</t>
   </si>
 </sst>
 </file>
@@ -268,7 +320,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +387,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -363,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -410,6 +480,12 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,7 +818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
@@ -770,46 +846,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="14"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
@@ -822,16 +898,16 @@
         <v>18</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E6" s="10" t="s">
@@ -844,14 +920,14 @@
         <v>20</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="24" t="s">
+      <c r="I6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10" t="s">
         <v>24</v>
@@ -868,14 +944,14 @@
         <v>26</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="11"/>
       <c r="P7" s="1" t="s">
         <v>19</v>
@@ -889,14 +965,14 @@
         <v>22</v>
       </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
@@ -904,18 +980,18 @@
       <c r="I9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21" t="s">
+      <c r="M9" s="25"/>
+      <c r="N9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="21"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H10" s="4"/>
@@ -941,12 +1017,12 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="22" t="s">
+      <c r="V10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
@@ -1240,43 +1316,43 @@
   </cols>
   <sheetData>
     <row r="4" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G4" s="25" t="s">
+      <c r="G4" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21" t="s">
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="21"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G7" s="9"/>
@@ -1501,38 +1577,38 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1545,16 +1621,16 @@
         <v>18</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
@@ -1567,14 +1643,14 @@
         <v>20</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15" t="s">
         <v>24</v>
@@ -1591,14 +1667,14 @@
         <v>26</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16" t="s">
         <v>19</v>
@@ -1615,4 +1691,140 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E5:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E7" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="5:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="22"/>
+      <c r="F9" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="5:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="22"/>
+      <c r="F10" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="5:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="22"/>
+      <c r="F11" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="5:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="5:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="22"/>
+      <c r="F13" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="22"/>
+      <c r="F14" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="22"/>
+      <c r="F15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="22"/>
+      <c r="F17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="22"/>
+      <c r="F18" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>